--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value999.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value999.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.279071496198791</v>
+        <v>1.741684079170227</v>
       </c>
       <c r="B1">
-        <v>2.715310018748682</v>
+        <v>1.880554556846619</v>
       </c>
       <c r="C1">
-        <v>4.824471144545729</v>
+        <v>1.907991170883179</v>
       </c>
       <c r="D1">
-        <v>2.063480867727411</v>
+        <v>2.484105587005615</v>
       </c>
       <c r="E1">
-        <v>0.9207955364643208</v>
+        <v>2.834566593170166</v>
       </c>
     </row>
   </sheetData>
